--- a/Planilhas_no_python/notas.xlsx
+++ b/Planilhas_no_python/notas.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="1ºano" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="2ºano" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
   <si>
     <t xml:space="preserve">1 bimestre</t>
   </si>
@@ -28,61 +29,85 @@
     <t xml:space="preserve">2 bimestre</t>
   </si>
   <si>
+    <t xml:space="preserve">3 bimestre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 bimestre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matéria</t>
   </si>
   <si>
     <t xml:space="preserve">Notas</t>
   </si>
   <si>
+    <t xml:space="preserve">Artes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filosofia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Física</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geografia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espanhol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inglês</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Português</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matemática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logic de prog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Química</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sociologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLC</t>
+  </si>
+  <si>
     <t xml:space="preserve">APS</t>
   </si>
   <si>
     <t xml:space="preserve">BD</t>
   </si>
   <si>
-    <t xml:space="preserve">Biologia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Design</t>
   </si>
   <si>
-    <t xml:space="preserve">EDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filosofia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Física</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geografia</t>
+    <t xml:space="preserve">não atualizado</t>
   </si>
   <si>
     <t xml:space="preserve">GS1</t>
   </si>
   <si>
-    <t xml:space="preserve">Historia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espanhol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inglês</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Português</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matemática</t>
-  </si>
-  <si>
     <t xml:space="preserve">PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Química</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sociologia</t>
   </si>
 </sst>
 </file>
@@ -92,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -113,6 +138,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,17 +196,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -179,6 +226,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -293,10 +400,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -310,252 +417,742 @@
         <v>1</v>
       </c>
       <c r="F1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="I17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="I18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E17:F17"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>9.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="n">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>8.5</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>8.8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>8</v>
+      <c r="G9" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="n">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="n">
         <v>9.3</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>9.3</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="B12" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="n">
         <v>6.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2" t="n">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="n">
         <v>9.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2" t="n">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="n">
         <v>8.5</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="2" t="n">
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="2" t="n">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="2" t="n">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="2" t="n">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3" t="n">
         <v>8.5</v>
       </c>
     </row>
